--- a/data/income_statement/2digits/size/50_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/50_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>50-Water transport</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>50-Water transport</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,311 +841,351 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>218978.12667</v>
+        <v>259462.29084</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>240636.44523</v>
+        <v>282785.65663</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>322597.40035</v>
+        <v>368252.50163</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>249019.27588</v>
+        <v>296013.66063</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>235040.6706</v>
+        <v>277842.35387</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>683012.10551</v>
+        <v>731418.30961</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>244313.44633</v>
+        <v>310175.8926</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>225023.45397</v>
+        <v>297801.40831</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>266201.83087</v>
+        <v>340632.9273400001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>688737.4612099999</v>
+        <v>782957.6354499999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>689308.49286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>822516.67105</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>749338.743</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>123081.15841</v>
+        <v>149060.66427</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>150791.67219</v>
+        <v>181087.19211</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>154779.2705</v>
+        <v>188286.44612</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>151385.98787</v>
+        <v>183285.01248</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>139420.33524</v>
+        <v>170528.1244</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>140228.09459</v>
+        <v>175953.0452</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>133422.56545</v>
+        <v>180215.34429</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>122373.02723</v>
+        <v>175370.90107</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>133438.4923</v>
+        <v>191372.21681</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>394542.91867</v>
+        <v>453058.1335599999</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>365671.63608</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>461515.81015</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>426219.334</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>88169.94656</v>
+        <v>100167.3917</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>86608.33775999999</v>
+        <v>95273.59142</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>164126.67426</v>
+        <v>173826.35636</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>94270.87368</v>
+        <v>106701.57879</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>91416.04148</v>
+        <v>101347.45477</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>533336.36667</v>
+        <v>544794.096</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>103270.95231</v>
+        <v>119070.37066</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>90986.62172</v>
+        <v>105555.85243</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>116071.6336</v>
+        <v>127335.77659</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>283600.19602</v>
+        <v>309133.76601</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>291677.69429</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>320467.54934</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>297443.195</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>7727.0217</v>
+        <v>10234.23487</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>3236.43528</v>
+        <v>6424.8731</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>3691.45559</v>
+        <v>6139.69915</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>3362.41433</v>
+        <v>6027.06936</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>4204.29388</v>
+        <v>5966.7747</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>9447.644249999999</v>
+        <v>10671.16841</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>7619.92857</v>
+        <v>10890.17765</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>11663.80502</v>
+        <v>16874.65481</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>16691.70497</v>
+        <v>21924.93394</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>10594.34652</v>
+        <v>20765.73588</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>31959.16249</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>40533.31156</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>25676.214</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>368.18978</v>
+        <v>436.65837</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>878.6297099999999</v>
+        <v>929.07217</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>730.6071100000001</v>
+        <v>1503.8727</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>1459.76885</v>
+        <v>1887.31543</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>638.96308</v>
+        <v>1090.85334</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>280.20215</v>
+        <v>549.04679</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>327.02079</v>
+        <v>3677.89238</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>382.82184</v>
+        <v>4511.415559999999</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>639.7214299999999</v>
+        <v>6373.276110000001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1876.28503</v>
+        <v>2899.06824</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1404.61253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>6314.63392</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>4298.322</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>314.99451</v>
+        <v>383.18669</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>640.9260300000001</v>
+        <v>656.9025800000001</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>567.93182</v>
+        <v>670.1071899999999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>1201.16526</v>
+        <v>1628.23765</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>498.26089</v>
+        <v>822.2558100000001</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>262.45587</v>
+        <v>531.30051</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>296.14035</v>
+        <v>3617.11174</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>361.62394</v>
+        <v>4409.79867</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>635.1277</v>
+        <v>6367.58</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1774.10824</v>
+        <v>2796.76131</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1245.11666</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>6125.10388</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>3772.66</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>38.88516000000001</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>236.67238</v>
+        <v>243.53454</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>139.60574</v>
+        <v>165.99437</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>168.7124</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>114.32808</v>
+        <v>240.64768</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>8.16348</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>9.628629999999999</v>
+        <v>22.52013</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>10.10892</v>
+        <v>12.55669</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>3.46734</v>
+        <v>4.56972</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>88.16940000000001</v>
+        <v>88.29954000000001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>79.53297999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>108.86322</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>522.651</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>14.31011</v>
+        <v>14.58652</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>1.0313</v>
+        <v>28.63505</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>23.06955</v>
+        <v>667.7711400000001</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>89.89119000000001</v>
+        <v>90.36538</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>26.37411</v>
+        <v>27.94985</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>9.582799999999999</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>21.25181</v>
+        <v>38.26051</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>11.08898</v>
+        <v>89.06020000000001</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>1.12639</v>
@@ -1253,331 +1194,376 @@
         <v>14.00739</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>79.96289</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>80.66682</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>3.011</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>218609.93689</v>
+        <v>259025.63247</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>239757.81552</v>
+        <v>281856.58446</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>321866.79324</v>
+        <v>366748.62893</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>247559.50703</v>
+        <v>294126.3452</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>234401.70752</v>
+        <v>276751.50053</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>682731.9033599999</v>
+        <v>730869.2628199999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>243986.42554</v>
+        <v>306498.00022</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>224640.63213</v>
+        <v>293289.99275</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>265562.10944</v>
+        <v>334259.65123</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>686861.17618</v>
+        <v>780058.5672099999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>687903.8803300001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>816202.03713</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>745040.421</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>169470.73344</v>
+        <v>198986.73629</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>201578.82428</v>
+        <v>232895.7641</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>288234.02537</v>
+        <v>323739.74051</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>202026.14893</v>
+        <v>239335.97794</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>184414.09318</v>
+        <v>222179.25665</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>617770.1751999999</v>
+        <v>666982.02078</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>195365.87306</v>
+        <v>244511.97204</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>181896.1096</v>
+        <v>245383.76556</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>209177.87154</v>
+        <v>266580.82472</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>585598.4467299999</v>
+        <v>678101.94716</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>586062.81118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>683501.17591</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>641879.566</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>16309.80697</v>
+        <v>16356.6327</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>1957.08862</v>
+        <v>2737.37374</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1801.99382</v>
+        <v>2758.94687</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>4985.68468</v>
+        <v>6283.3514</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1303.26858</v>
+        <v>2079.27002</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>7254.423650000001</v>
+        <v>7924.526350000001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>2632.64594</v>
+        <v>2938.52602</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>875.31181</v>
+        <v>2185.86059</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>752.06499</v>
+        <v>1433.10907</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1628.87756</v>
+        <v>1644.01711</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>10132.46204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>10742.52586</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>4056.211</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>15481.38475</v>
+        <v>16565.34361</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>19425.15904</v>
+        <v>21043.78711</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>102752.60941</v>
+        <v>106415.11431</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>19668.34969</v>
+        <v>24675.56648</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>10700.3371</v>
+        <v>11742.36386</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>454405.79037</v>
+        <v>456425.6104200001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>23839.10587</v>
+        <v>26097.28562</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>12148.80146</v>
+        <v>16255.73768</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>14653.56824</v>
+        <v>19740.44506</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>57828.47599000001</v>
+        <v>66390.99392000001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>90223.89354999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>99892.90255000001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>62044.669</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>135863.66175</v>
+        <v>163321.73378</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>179330.62311</v>
+        <v>208138.95703</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>182979.28335</v>
+        <v>213669.14578</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>176848.71073</v>
+        <v>207676.83541</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>171874.96094</v>
+        <v>207679.40654</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>152423.0023</v>
+        <v>198532.91569</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>167989.27424</v>
+        <v>214419.8829</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>165720.42904</v>
+        <v>223669.11282</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>191755.08875</v>
+        <v>243333.19664</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>524150.34523</v>
+        <v>605795.99593</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>480624.44682</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>565764.5324599999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>560089.557</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>1815.87997</v>
+        <v>2743.0262</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>865.9535100000001</v>
+        <v>975.64622</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>700.1387900000001</v>
+        <v>896.5335499999999</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>523.40383</v>
+        <v>700.22465</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>535.5265599999999</v>
+        <v>678.21623</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>3686.95888</v>
+        <v>4098.96832</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>904.84701</v>
+        <v>1056.2775</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>3151.56729</v>
+        <v>3273.05447</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>2017.14956</v>
+        <v>2074.07395</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>1990.74795</v>
+        <v>4270.9402</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>5082.008769999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>7101.215040000001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>15689.129</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>49139.20345</v>
+        <v>60038.89618</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>38178.99124</v>
+        <v>48960.82036</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>33632.76787</v>
+        <v>43008.88842</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>45533.3581</v>
+        <v>54790.36726000001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>49987.61434</v>
+        <v>54572.24387999999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>64961.72816000001</v>
+        <v>63887.24204</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>48620.55248</v>
+        <v>61986.02817999999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>42744.52253</v>
+        <v>47906.22719</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>56384.2379</v>
+        <v>67678.82650999998</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>101262.72945</v>
+        <v>101956.62005</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>101841.06915</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>132700.86122</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>103160.855</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>49112.06958</v>
+        <v>90868.93040000001</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>46630.31362000001</v>
+        <v>85036.50587000001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>56107.25741</v>
+        <v>116247.89666</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>63680.50704</v>
+        <v>95134.81993000001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>58159.6125</v>
+        <v>96874.69940000001</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>74812.27352</v>
+        <v>112056.69928</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>58987.89757</v>
+        <v>103008.83909</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>68641.07331000001</v>
+        <v>119524.10368</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>70926.85012999999</v>
+        <v>112596.4075</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>117522.39915</v>
+        <v>181322.92918</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>116852.31173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>214128.42713</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>201108.6</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>0</v>
+        <v>74.84808</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1e-05</v>
+        <v>0.9135699999999999</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>1.10525</v>
@@ -1589,7 +1575,7 @@
         <v>51.1306</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>610.28453</v>
+        <v>615.81003</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>22.14809</v>
@@ -1606,455 +1592,515 @@
       <c r="M21" s="48" t="n">
         <v>5.23814</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>1.199</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>6255.09829</v>
+        <v>6845.239199999999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>4441.81087</v>
+        <v>5212.1589</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>6141.90097</v>
+        <v>6832.8601</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>6628.278179999999</v>
+        <v>8875.51044</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>11684.97134</v>
+        <v>12530.55223</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>11499.55292</v>
+        <v>11876.84637</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>4006.94872</v>
+        <v>6186.506359999999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>3455.17439</v>
+        <v>5498.451550000001</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>9542.759109999999</v>
+        <v>10539.22963</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>10895.64516</v>
+        <v>12305.26077</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>10114.79667</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>14139.75852</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>12149.52</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>42856.97129</v>
+        <v>83948.84312000001</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>42188.50274</v>
+        <v>79823.43340000001</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>49964.25119</v>
+        <v>109413.93131</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>57052.22885999999</v>
+        <v>86259.30949</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>46423.51056</v>
+        <v>84293.01656999999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>62702.43607</v>
+        <v>99564.04287999999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>54958.80076000001</v>
+        <v>96800.18464000002</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>65159.92042</v>
+        <v>113999.67363</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>61384.09002</v>
+        <v>102057.17687</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>106626.75299</v>
+        <v>169017.66741</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>106732.27692</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>199983.43047</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>188957.881</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>27.13387000000001</v>
+        <v>-30830.03422</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-8451.322380000001</v>
+        <v>-36075.68551</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-22474.48954</v>
+        <v>-73239.00824</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-18147.14894</v>
+        <v>-40344.45267</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-8171.99816</v>
+        <v>-42302.45552</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-9850.545360000002</v>
+        <v>-48169.45724</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-10367.34509</v>
+        <v>-41022.81090999999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-25896.55078</v>
+        <v>-71617.87649000001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-14542.61223</v>
+        <v>-44917.58099</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-16259.6697</v>
+        <v>-79366.30912999999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-15011.24258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-81427.56590999999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-97947.745</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>11334.40617</v>
+        <v>271496.89749</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>9472.255120000002</v>
+        <v>95667.47999000001</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>16475.30135</v>
+        <v>137738.37439</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>16152.51552</v>
+        <v>132220.78741</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>9468.64176</v>
+        <v>121994.16309</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>28002.33797</v>
+        <v>155453.35334</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>17552.46164</v>
+        <v>232009.22973</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>13099.84255</v>
+        <v>159749.93103</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>11548.04352</v>
+        <v>240368.48111</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>76983.68536</v>
+        <v>1846276.98413</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>33817.81388</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>529606.26515</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>618735.566</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>107.85029</v>
+        <v>8964.20651</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>5.882350000000001</v>
+        <v>3572.82442</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>51.18149</v>
+        <v>4919.59031</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>136.28344</v>
+        <v>19919.60815</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>508.03164</v>
+        <v>3808.6268</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>339.5714</v>
+        <v>4680.12367</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>0</v>
+        <v>9559.211140000001</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>5</v>
+        <v>20993.48684</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>4</v>
+        <v>68399.59128000001</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>0</v>
+        <v>24064.65561</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>400.44349</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>31588.30219</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>65853.45</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>0.85</v>
+        <v>154764.04401</v>
       </c>
       <c r="D27" s="48" t="n">
         <v>0.3767200000000001</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>653.47732</v>
+        <v>759.2087700000001</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>0</v>
+        <v>742.80533</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>0</v>
+        <v>35.7585</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>0</v>
+        <v>23.92845</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>564.1389300000001</v>
+        <v>2213.92334</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>0</v>
+        <v>11130.75959</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>0</v>
+        <v>18374.10821</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>0</v>
+        <v>20144.84226</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>22478.38541</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>12654.444</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1069.46565</v>
+        <v>11014.46908</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>753.0525700000001</v>
+        <v>6524.579839999999</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>450.08246</v>
+        <v>8954.37383</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>564.86434</v>
+        <v>11101.45768</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>404.65485</v>
+        <v>13762.3729</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>396.39464</v>
+        <v>16461.13771</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>546.4123499999999</v>
+        <v>12258.82764</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>541.3830300000001</v>
+        <v>10153.0951</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>263.16412</v>
+        <v>13627.59821</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>2440.10271</v>
+        <v>30330.69943</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>4912.95804</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>56234.91354</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>19691.555</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>89.30823000000001</v>
+        <v>380.42384</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>99.59257000000001</v>
+        <v>100.61643</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>21.15519</v>
+        <v>23.95053</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>359.04167</v>
+        <v>390.0104700000001</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>25.00791</v>
+        <v>95.61807999999999</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>6.028039999999999</v>
+        <v>116.4048</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>4.25976</v>
+        <v>1462.78144</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>121.38905</v>
+        <v>264.09085</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>278.0588299999999</v>
+        <v>462.25787</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>217.77701</v>
+        <v>231.55055</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>318.51637</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>7212.16174</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>483.205</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>32.23137999999999</v>
+        <v>50.33771000000001</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>0.79037</v>
+        <v>12.7608</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>6.889110000000001</v>
+        <v>168.68781</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>240.71957</v>
+        <v>296.51298</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>354.3033</v>
+        <v>440.99564</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>116.0349</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>24.53928</v>
+        <v>575.05229</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>21.92153</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>21.66673</v>
+        <v>151.63798</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>368.5643</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>210.34949</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>210.52685</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>47.089</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>175.76687</v>
+        <v>395.33227</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>7.91748</v>
+        <v>811.71461</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>182.75879</v>
+        <v>1762.86064</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>115.99561</v>
+        <v>2709.91277</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>2.95836</v>
+        <v>160.41072</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>223.9824</v>
+        <v>6242.12586</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>0.00037</v>
+        <v>8.506110000000001</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>2.88756</v>
+        <v>45.90016</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>0.26844</v>
+        <v>289.18949</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>19.0627</v>
+        <v>72.83188</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>222.86287</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>4006.22438</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>256.026</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>8209.403130000001</v>
+        <v>86731.97441</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>6190.0604</v>
+        <v>75630.33501</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>11387.62347</v>
+        <v>108961.68518</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>6857.891689999999</v>
+        <v>78010.54193000001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>5929.35095</v>
+        <v>93328.21983</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>24421.00658</v>
+        <v>123445.23172</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>13707.30693</v>
+        <v>191270.18166</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>10914.45511</v>
+        <v>106757.96217</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>8687.532060000001</v>
+        <v>124883.64757</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>68881.76068000001</v>
+        <v>934405.47517</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>24281.13756</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>364361.21862</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>503197.89</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>0</v>
+        <v>12.98324</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>2.66436</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>51.17924</v>
+        <v>53.01644</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>0.00367</v>
+        <v>133.75013</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>140.085</v>
+        <v>140.84117</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>0</v>
@@ -2063,22 +2109,27 @@
         <v>16.94914</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>0</v>
+        <v>86.75146000000001</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>0</v>
+        <v>8.95722</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>0</v>
+        <v>0.00534</v>
       </c>
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>8.132289999999999</v>
@@ -2113,188 +2164,213 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>1641.39833</v>
+        <v>9174.994130000001</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>2387.92619</v>
+        <v>8987.615689999999</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>3670.95428</v>
+        <v>12135.00088</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>7874.53913</v>
+        <v>18913.01157</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>2101.07335</v>
+        <v>10218.14305</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>2499.32001</v>
+        <v>4368.366230000001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1921.33859</v>
+        <v>13876.28068</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1465.65606</v>
+        <v>10268.81312</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>2276.7486</v>
+        <v>14154.88854</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>5031.273219999999</v>
+        <v>836633.21485</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>3471.54606</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>43514.53242</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>16551.907</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>9322.86126</v>
+        <v>75456.52402000001</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>7811.42975</v>
+        <v>59792.59334000001</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>22603.61648</v>
+        <v>96235.92278000001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>10650.52085</v>
+        <v>71869.59203999999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>9523.626400000001</v>
+        <v>79266.52012</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>27549.74463</v>
+        <v>108927.06067</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>16573.15343</v>
+        <v>148512.28909</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>16020.78915</v>
+        <v>92430.81676999999</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>14283.98984</v>
+        <v>149172.48897</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>82868.63170999999</v>
+        <v>1167178.61739</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>30241.63626</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>171334.37745</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>422323.796</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>52.44887</v>
+        <v>287.88082</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>116.51499</v>
+        <v>969.5661</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>319.86082</v>
+        <v>370.03515</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>55.18517</v>
+        <v>66.34638000000001</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>234.35954</v>
+        <v>256.38432</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>249.67046</v>
+        <v>283.33327</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>57.12537</v>
+        <v>59.13914</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>126.35975</v>
+        <v>334.34215</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>658.4525</v>
+        <v>668.58092</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>433.72659</v>
+        <v>734.90924</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>400.42616</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1431.06354</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1064.352</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>170.65265</v>
+        <v>215.32895</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>77.58717999999999</v>
+        <v>170.79056</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>0.39697</v>
+        <v>110.46965</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>553.4200999999999</v>
+        <v>1212.14798</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>805.17403</v>
+        <v>845.5043200000001</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>0</v>
+        <v>18.24836</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>14.10768</v>
+        <v>466.38345</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>28.35739</v>
+        <v>471.16474</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>6.236050000000001</v>
+        <v>812.3830400000001</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>1226.46064</v>
+        <v>1234.45957</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>1262.84723</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>3562.75753</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>125.09</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>125.01333</v>
+        <v>1057.82483</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>6.02785</v>
+        <v>494.60855</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>120.30114</v>
+        <v>3296.98893</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>35.11085</v>
+        <v>51.47599</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>0.00018</v>
+        <v>64.25615999999999</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>211.37024</v>
+        <v>3819.52645</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>0</v>
+        <v>39.55018</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>0</v>
@@ -2303,58 +2379,68 @@
         <v>89.33977</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>29.50498</v>
+        <v>47.70498000000001</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>308.4206</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>68319.947</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>6644.21671</v>
+        <v>60030.83987</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>6572.240400000001</v>
+        <v>55964.03358</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>12104.48581</v>
+        <v>80261.88202</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>5212.07858</v>
+        <v>63140.08828</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>6855.322740000001</v>
+        <v>73798.82426000001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>25232.00076</v>
+        <v>102481.90176</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>15070.53118</v>
+        <v>136140.27638</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>15040.9039</v>
+        <v>88754.43411</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>12513.37477</v>
+        <v>139252.2327</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>79225.82483</v>
+        <v>1155999.744</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>26296.52866</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>161797.94287</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>345565.635</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>0.14679</v>
+        <v>13.1899</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>0</v>
@@ -2375,22 +2461,27 @@
         <v>36.60264</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>85.24178000000001</v>
+        <v>90.31919000000001</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>89.69967999999999</v>
+        <v>108.03546</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>114.03294</v>
+        <v>1203.4427</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>57.77368</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>1265.36056</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>19.383</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>116.42593</v>
@@ -2411,13 +2502,13 @@
         <v>116.42598</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>264.19679</v>
+        <v>2399.74713</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>0.0006400000000000001</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>0</v>
+        <v>23.08311</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>0</v>
@@ -2425,386 +2516,436 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>2213.95698</v>
+        <v>13735.03372</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>921.8699200000001</v>
+        <v>2076.40514</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>9929.703609999999</v>
+        <v>12067.6789</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>4732.447990000001</v>
+        <v>7337.25525</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>1566.49175</v>
+        <v>4239.2729</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1723.27136</v>
+        <v>2190.61902</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1130.58977</v>
+        <v>9370.590169999999</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>739.9256899999999</v>
+        <v>2780.555939999999</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>926.8870700000001</v>
+        <v>8218.833970000002</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>1839.08173</v>
+        <v>7958.356900000001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1915.63993</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>2968.83235</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>7229.389</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>3678.47301</v>
+        <v>36005.07844</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>2247.70888</v>
+        <v>21034.28774</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>3173.91186</v>
+        <v>48115.8481</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>2963.55997</v>
+        <v>33053.22156000001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>3345.79619</v>
+        <v>85168.56299999998</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>2882.83228</v>
+        <v>73568.32398</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>17330.22474</v>
+        <v>137307.82109</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>13114.96085</v>
+        <v>94025.47559</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>7237.82272</v>
+        <v>66325.54909</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>15913.61667</v>
+        <v>241596.42148</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>19360.89469</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>544907.0578899999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>849383.107</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>3385.79559</v>
+        <v>9524.617880000002</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>2085.00507</v>
+        <v>11534.34319</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>2390.86298</v>
+        <v>29055.67248</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>2643.55503</v>
+        <v>24489.70183</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>3181.95219</v>
+        <v>28915.71376</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>2672.90513</v>
+        <v>30446.07355</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>17068.54107</v>
+        <v>57427.67458</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>11243.67309</v>
+        <v>59423.28537000001</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>2926.36599</v>
+        <v>51519.48768</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>15348.28406</v>
+        <v>207844.18115</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>10720.2012</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>496442.49369</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>752417.1800000001</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>292.67742</v>
+        <v>26480.46056</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>162.70381</v>
+        <v>9499.94455</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>783.0488800000001</v>
+        <v>19060.17562</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>320.00494</v>
+        <v>8563.51973</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>163.844</v>
+        <v>56252.84924</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>209.92715</v>
+        <v>43122.25043</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>261.68367</v>
+        <v>79880.14651000001</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1871.28776</v>
+        <v>34602.19022</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>4311.456730000001</v>
+        <v>14806.06141</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>565.3326099999999</v>
+        <v>33752.24033</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>8640.69349</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>48464.56419999999</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>96965.927</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-1639.79423</v>
+        <v>129205.26081</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-9038.205889999999</v>
+        <v>-21235.0866</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-31776.71653</v>
+        <v>-79852.40473000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-15608.71424</v>
+        <v>-13046.47886</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-11572.77899</v>
+        <v>-84743.37555</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-12280.7843</v>
+        <v>-75211.48854999999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-26718.26162</v>
+        <v>-94833.69136</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-41932.45823</v>
+        <v>-98324.23781999999</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-24516.38127</v>
+        <v>-20047.13794</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-38058.23272</v>
+        <v>358135.63613</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-30795.95965</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-268062.7361</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-750919.0820000001</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>3209.86388</v>
+        <v>28192.17749</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>4649.81816</v>
+        <v>12425.69678</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>10056.10802</v>
+        <v>81887.19021000002</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>7952.57257</v>
+        <v>33144.51396</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>9050.83474</v>
+        <v>108791.21478</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>3497.96915</v>
+        <v>33889.99094</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>2859.4665</v>
+        <v>16525.61233</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>3973.60365</v>
+        <v>41419.39582</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>6440.256429999999</v>
+        <v>45762.05711</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>23376.49543</v>
+        <v>89534.71256999999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>13661.1976</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>65671.06449</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>138709.898</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>176.68776</v>
+        <v>196.09887</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>67.13392</v>
+        <v>352.49486</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>1670.9269</v>
+        <v>1715.81974</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>187.44793</v>
+        <v>355.5693899999999</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>1.93974</v>
+        <v>1216.12421</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>115.42419</v>
+        <v>287.93494</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>0</v>
+        <v>5.01712</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>2.30009</v>
+        <v>9.04471</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>3.24235</v>
+        <v>113.56865</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>6.332059999999999</v>
+        <v>88.36328</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>8.200239999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>121.95375</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>623.522</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>3033.17612</v>
+        <v>27996.07862</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>4582.684240000001</v>
+        <v>12073.20192</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>8385.181119999999</v>
+        <v>80171.37046999999</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>7765.124640000001</v>
+        <v>32788.94457</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>9048.895</v>
+        <v>107575.09057</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>3382.54496</v>
+        <v>33602.056</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>2859.4665</v>
+        <v>16520.59521</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>3971.30356</v>
+        <v>41410.35111</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>6437.014079999999</v>
+        <v>45648.48845999999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>23370.16337</v>
+        <v>89446.34929</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>13652.99736</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>65549.11074</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>138086.376</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>12740.81844</v>
+        <v>29362.26004</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>5774.57267</v>
+        <v>13569.4696</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>54936.23498</v>
+        <v>201293.79223</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>5819.60492</v>
+        <v>19721.83912</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>9751.960069999999</v>
+        <v>28623.25432</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>31524.2313</v>
+        <v>87959.28960999999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>18331.39675</v>
+        <v>50672.31194</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>23533.07323</v>
+        <v>137776.58866</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>5009.759389999999</v>
+        <v>34929.59757</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>47450.16581000001</v>
+        <v>150245.91427</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>49180.96904</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>69710.05722</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>50303.908</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>17.47823</v>
+        <v>58.0235</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>151.15739</v>
+        <v>996.3399000000001</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>143.23504</v>
+        <v>2564.57134</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>86.1763</v>
+        <v>1527.93499</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>840.2073</v>
+        <v>2054.65412</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>170.217</v>
+        <v>526.7495699999999</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>163.66607</v>
+        <v>1826.70907</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>109.45798</v>
+        <v>1761.12538</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>76.63458</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>111.78805</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>2013.35</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>137.85489</v>
+        <v>4175.91385</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>319.25616</v>
+        <v>621.9378899999999</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>657.06774</v>
+        <v>14003.88993</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>196.79909</v>
+        <v>2557.77638</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>248.05525</v>
+        <v>7216.29056</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>230.13577</v>
+        <v>2427.83143</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>807.40969</v>
+        <v>1292.47249</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>172.80821</v>
+        <v>959.9053699999999</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>292.91746</v>
+        <v>4705.73809</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>856.68301</v>
+        <v>1760.41422</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>424.52354</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>730.14325</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1287.358</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>12585.48532</v>
+        <v>25128.32269</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>5304.159119999999</v>
+        <v>11951.19181</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>54135.9322</v>
+        <v>184725.33096</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>5536.629529999999</v>
+        <v>15636.12775</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>8663.69752</v>
+        <v>19352.30964</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>31123.87853</v>
+        <v>85004.70861000002</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>17360.32099</v>
+        <v>47553.13038</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>23250.80704</v>
+        <v>135055.55791</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>4640.20735</v>
+        <v>30147.2249</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>46511.74629</v>
+        <v>148403.76354</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>48644.65745</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>68868.12591999999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>47003.2</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-11170.74879</v>
+        <v>128035.17826</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-10162.9604</v>
+        <v>-22378.85942</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-76656.84349</v>
+        <v>-199259.00675</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-13475.74659</v>
+        <v>376.1959800000005</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-12273.90432</v>
+        <v>-4575.415090000003</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-40307.04644999999</v>
+        <v>-129280.78722</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-42190.19187</v>
+        <v>-128980.39097</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-61491.92781</v>
+        <v>-194681.43066</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-23085.88423</v>
+        <v>-9214.678400000001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-62131.9031</v>
+        <v>297424.43443</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-66315.73109</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-272101.72883</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-662513.0919999999</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>1703.25918</v>
+        <v>2612.86786</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>1596.39267</v>
+        <v>2300.53638</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>1920.00611</v>
+        <v>4137.24557</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>1106.56751</v>
+        <v>3151.49796</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>1163.8089</v>
+        <v>2832.44045</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>1002.64499</v>
+        <v>2116.9523</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1165.65354</v>
+        <v>2457.29009</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1259.42777</v>
+        <v>3794.84916</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>1348.51433</v>
+        <v>3061.19085</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>4716.19755</v>
+        <v>17959.8049</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>4274.164710000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>15232.62737</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>12050.659</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-12874.00797</v>
+        <v>125422.3104</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-11759.35307</v>
+        <v>-24679.3958</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-78576.84959999999</v>
+        <v>-203396.25232</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-14582.3141</v>
+        <v>-2775.301979999998</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-13437.71322</v>
+        <v>-7407.855540000003</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-41309.69144</v>
+        <v>-131397.73952</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-43355.84541</v>
+        <v>-131437.68106</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-62751.35558</v>
+        <v>-198476.27982</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-24434.39856</v>
+        <v>-12275.86925</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-66848.10065000001</v>
+        <v>279464.62953</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-70589.8958</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-287334.3562</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-674563.751</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1149</v>
+        <v>1398</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1147</v>
+        <v>1414</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1165</v>
+        <v>1429</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1115</v>
+        <v>1390</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1026</v>
+        <v>1316</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>985</v>
+        <v>1276</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>941</v>
+        <v>1266</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>904</v>
+        <v>1271</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>935</v>
+        <v>1306</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1113</v>
+        <v>1408</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1446</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>